--- a/Jogos_do_Dia/2024-01-25_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-01-25_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -694,10 +694,10 @@
         <v>2.16</v>
       </c>
       <c r="K2" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L2" t="n">
-        <v>2.93</v>
+        <v>2.85</v>
       </c>
       <c r="M2" t="n">
         <v>1.35</v>
@@ -718,10 +718,10 @@
         <v>3.82</v>
       </c>
       <c r="S2" t="n">
-        <v>1.79</v>
+        <v>1.66</v>
       </c>
       <c r="T2" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="U2" t="n">
         <v>1.62</v>
@@ -830,13 +830,13 @@
         <v>9</v>
       </c>
       <c r="J3" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="K3" t="n">
-        <v>7.1</v>
+        <v>7.15</v>
       </c>
       <c r="L3" t="n">
-        <v>12.5</v>
+        <v>14.1</v>
       </c>
       <c r="M3" t="n">
         <v>1.21</v>
@@ -902,10 +902,10 @@
         <v>10</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="AJ3" t="n">
         <v>1.19</v>
@@ -969,13 +969,13 @@
         <v>3.05</v>
       </c>
       <c r="J4" t="n">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="K4" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L4" t="n">
-        <v>2.46</v>
+        <v>2.3</v>
       </c>
       <c r="M4" t="n">
         <v>1.38</v>
@@ -996,10 +996,10 @@
         <v>3.44</v>
       </c>
       <c r="S4" t="n">
-        <v>1.95</v>
+        <v>1.66</v>
       </c>
       <c r="T4" t="n">
-        <v>1.91</v>
+        <v>2.06</v>
       </c>
       <c r="U4" t="n">
         <v>1.68</v>
@@ -1065,10 +1065,10 @@
         <v>1.25</v>
       </c>
       <c r="AP4" t="n">
-        <v>0</v>
+        <v>4.45</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2024-01-25_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-01-25_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -691,13 +691,13 @@
         <v>3.6</v>
       </c>
       <c r="J2" t="n">
-        <v>2.16</v>
+        <v>2.13</v>
       </c>
       <c r="K2" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="L2" t="n">
-        <v>2.85</v>
+        <v>3.1</v>
       </c>
       <c r="M2" t="n">
         <v>1.35</v>
@@ -718,10 +718,10 @@
         <v>3.82</v>
       </c>
       <c r="S2" t="n">
-        <v>1.66</v>
+        <v>1.77</v>
       </c>
       <c r="T2" t="n">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="U2" t="n">
         <v>1.62</v>
@@ -739,10 +739,10 @@
         <v>1.68</v>
       </c>
       <c r="Z2" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AB2" t="n">
         <v>1.43</v>
@@ -830,13 +830,13 @@
         <v>9</v>
       </c>
       <c r="J3" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="K3" t="n">
-        <v>7.15</v>
+        <v>8.1</v>
       </c>
       <c r="L3" t="n">
-        <v>14.1</v>
+        <v>16</v>
       </c>
       <c r="M3" t="n">
         <v>1.21</v>
@@ -857,10 +857,10 @@
         <v>6.89</v>
       </c>
       <c r="S3" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="T3" t="n">
-        <v>2.84</v>
+        <v>2.9</v>
       </c>
       <c r="U3" t="n">
         <v>2.05</v>
@@ -881,7 +881,7 @@
         <v>3</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AB3" t="n">
         <v>2.28</v>
@@ -972,10 +972,10 @@
         <v>2.64</v>
       </c>
       <c r="K4" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="L4" t="n">
-        <v>2.3</v>
+        <v>2.48</v>
       </c>
       <c r="M4" t="n">
         <v>1.38</v>
@@ -996,10 +996,10 @@
         <v>3.44</v>
       </c>
       <c r="S4" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="T4" t="n">
-        <v>2.06</v>
+        <v>2.16</v>
       </c>
       <c r="U4" t="n">
         <v>1.68</v>
@@ -1017,10 +1017,10 @@
         <v>1.45</v>
       </c>
       <c r="Z4" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AB4" t="n">
         <v>1.36</v>
